--- a/WebApplication1/WebApplication1/示例测试目录/支付公司导出订单/pacypayhossted弃单.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/支付公司导出订单/pacypayhossted弃单.xlsx
@@ -14,399 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>弃单号</t>
   </si>
   <si>
-    <t>c05be034-92eb-4b27-a5ac-76903ae42598</t>
-  </si>
-  <si>
-    <t>dd43b7d4-0294-4e51-9ec0-acd24af80cfa</t>
-  </si>
-  <si>
-    <t>198bc971-8836-4f24-be00-1c638f29a71e</t>
-  </si>
-  <si>
-    <t>33620475-d8fb-40fa-9142-3a531025b90f</t>
-  </si>
-  <si>
-    <t>ee347dac-83de-44c7-b308-bf75b927c37d</t>
-  </si>
-  <si>
-    <t>a811d389-fa6f-4ebf-9b1a-8c6263eed1ff</t>
-  </si>
-  <si>
-    <t>02d4c8cc-ddd5-4a56-a04b-a25fc71751f0</t>
-  </si>
-  <si>
-    <t>b7d8e022-7e81-49f0-b999-fb759d4b07c1</t>
-  </si>
-  <si>
-    <t>827105f8-e1ad-4742-8191-722fae72fa41</t>
-  </si>
-  <si>
-    <t>3b453f80-5359-411f-a0cb-b88e5c8eea6c</t>
-  </si>
-  <si>
-    <t>b6549eed-b23c-422d-be3c-a13aba56c5a6</t>
-  </si>
-  <si>
-    <t>3b6a73b8-9658-41c4-b280-9e73154cc857</t>
-  </si>
-  <si>
-    <t>d9cb060e-5eb7-45aa-af5c-c1ffc9ee4797</t>
-  </si>
-  <si>
-    <t>73bc925a-ac20-4ab4-bdb2-454b819ae81d</t>
-  </si>
-  <si>
-    <t>91d26109-ebbb-4bdd-9a9f-de7853608d0f</t>
-  </si>
-  <si>
-    <t>4df410de-e891-4143-ab4b-75c0a1569c96</t>
-  </si>
-  <si>
-    <t>a29f2f87-cfd1-47a6-b782-44f1aa39bc19</t>
-  </si>
-  <si>
-    <t>68bd9888-ae89-4d56-b917-1563103fe597</t>
-  </si>
-  <si>
-    <t>ca1e84f1-a743-4426-83ed-c1ecb87f9c51</t>
-  </si>
-  <si>
-    <t>c4ac439a-d053-4e69-81b2-c29dd1a2b771</t>
-  </si>
-  <si>
-    <t>4176196c-54d6-4bf9-b549-38180d8415c8</t>
-  </si>
-  <si>
-    <t>ac0b91fb-dc6c-4ba1-966b-2a7b57c20cc2</t>
-  </si>
-  <si>
-    <t>3f70d886-d689-49d0-8328-ed355b5bd2d8</t>
-  </si>
-  <si>
-    <t>30c55538-3675-4993-8563-0baf39f3bb8b</t>
-  </si>
-  <si>
-    <t>7cd35c96-9539-46b8-8cf4-ff639cdfec34</t>
-  </si>
-  <si>
-    <t>353dd851-1fba-4052-bf89-cc45a60434de</t>
-  </si>
-  <si>
-    <t>4ae7f1a9-62c0-414a-9382-42af5a62b0d2</t>
-  </si>
-  <si>
-    <t>fe547900-dc24-4c33-a6cb-0a157c3418cd</t>
-  </si>
-  <si>
-    <t>1baa9118-20eb-48eb-8e53-8728d0acd8c4</t>
-  </si>
-  <si>
-    <t>e7da44a1-14a8-471c-b5f5-8282a8621547</t>
-  </si>
-  <si>
-    <t>c2c6d352-316c-4805-908c-7a06d95d25fe</t>
-  </si>
-  <si>
-    <t>a0620713-d715-44b4-a67b-e0f89c59d64e</t>
-  </si>
-  <si>
-    <t>b2c02e9c-8797-41fe-96e2-2e9e5ef72cfc</t>
-  </si>
-  <si>
-    <t>764c6160-d682-42a1-83c1-423f392fc28e</t>
-  </si>
-  <si>
-    <t>3b53e4a2-50f4-493f-82b3-fdf20c2b9f64</t>
-  </si>
-  <si>
-    <t>96cc8d28-87f7-4d10-b49c-61c44f34798e</t>
-  </si>
-  <si>
-    <t>ccf86981-55ae-4cc2-9ee2-50b1314efb4d</t>
-  </si>
-  <si>
-    <t>37dcde00-8690-4683-acd1-ebacd3d0e0b2</t>
-  </si>
-  <si>
-    <t>0690ab38-bdf3-4994-8421-6aa47f6bd25e</t>
-  </si>
-  <si>
-    <t>380b5c4e-4e01-4008-aba7-062bfbe690a6</t>
-  </si>
-  <si>
-    <t>27ee0500-626e-4418-b71e-964ad11f2ee9</t>
-  </si>
-  <si>
-    <t>68f629ab-2c38-478e-95f6-6673245fa355</t>
-  </si>
-  <si>
-    <t>de54edbc-d250-4809-8bd4-4b9e6dc73abf</t>
-  </si>
-  <si>
-    <t>84d60e59-162b-483f-92d8-496b2163c206</t>
-  </si>
-  <si>
-    <t>50889c13-bb72-4763-81f8-a46aa4dfdd7c</t>
-  </si>
-  <si>
-    <t>16bebde9-4e6f-4e61-87b1-f813e88cb6bf</t>
-  </si>
-  <si>
-    <t>e0f93874-c32a-473d-aecd-04c8f573f4c7</t>
-  </si>
-  <si>
-    <t>c96e4a28-33a0-4c27-9688-d8d8273ec871</t>
-  </si>
-  <si>
-    <t>1747a686-efc8-43c9-88e7-26c2a9070a29</t>
-  </si>
-  <si>
-    <t>174cc6ee-a14d-4715-a6e1-7879f17a7704</t>
-  </si>
-  <si>
-    <t>45cb4eed-8238-4184-a724-eab67444c1d4</t>
-  </si>
-  <si>
-    <t>391f80ff-25b0-4109-ae81-8623cd9517ff</t>
-  </si>
-  <si>
-    <t>0d1e3b88-f287-4316-a0e3-f363d277109f</t>
-  </si>
-  <si>
-    <t>ccf99a20-5144-47bd-b4fc-10f7694c4366</t>
-  </si>
-  <si>
-    <t>7d35acfb-987f-4ec7-9701-79102bac421b</t>
-  </si>
-  <si>
-    <t>94b3b492-587c-42c2-b4d4-48c8c80157c8</t>
-  </si>
-  <si>
-    <t>568e0973-7251-454b-969b-847b206f51a4</t>
-  </si>
-  <si>
-    <t>4022dea6-a743-4fb0-9fce-8b5e3f717e15</t>
-  </si>
-  <si>
-    <t>50206793-c122-4352-84ca-6362cdd9b5cd</t>
-  </si>
-  <si>
-    <t>173fbcae-e2d7-489c-aea1-099320fe3fce</t>
-  </si>
-  <si>
-    <t>15b4181d-ca3e-4447-8bd1-5ca8cc13fdb6</t>
-  </si>
-  <si>
-    <t>0684aa18-4af5-4a24-92da-6308037ed323</t>
-  </si>
-  <si>
-    <t>79f77e20-89b0-4766-8842-b18f696e15c9</t>
-  </si>
-  <si>
-    <t>40d24347-0fa7-44dd-885f-c95c110ae341</t>
-  </si>
-  <si>
-    <t>5fa2a9b3-8d23-4f8e-8aa2-7999e0738f9e</t>
-  </si>
-  <si>
-    <t>bf06d72c-c1e1-4b18-bfe7-61954b009863</t>
-  </si>
-  <si>
-    <t>cec9fd6c-f1d1-402a-9bae-54f31680ed1c</t>
-  </si>
-  <si>
-    <t>79323e51-0bff-4e52-aeea-6a4e6e1e4a60</t>
-  </si>
-  <si>
-    <t>48605e87-7d74-4c11-a18c-7bb7c90c7301</t>
-  </si>
-  <si>
-    <t>fabb012a-a9de-41b2-bcd3-785cf403a398</t>
-  </si>
-  <si>
-    <t>1b6c0ca2-4111-4a9c-a252-db8cda05b96d</t>
-  </si>
-  <si>
-    <t>4bff0ea6-8dce-4119-ac42-a295da585130</t>
-  </si>
-  <si>
-    <t>ee1b83e4-216f-44e6-946d-7937930ea33f</t>
-  </si>
-  <si>
-    <t>d3b955e8-9ccd-4b1b-a3bc-4e3157cbb979</t>
-  </si>
-  <si>
-    <t>88eb1832-3639-49e2-9c6e-a35684fe08c8</t>
-  </si>
-  <si>
-    <t>875f74a0-324d-429a-a6fb-6d75f7983faf</t>
-  </si>
-  <si>
-    <t>e9414311-1953-4384-8c26-1919117273c9</t>
-  </si>
-  <si>
-    <t>f0fe8b16-12fb-4088-a044-9f7f24e6a214</t>
-  </si>
-  <si>
-    <t>f27ef436-a977-4080-a4b1-3180714d4553</t>
-  </si>
-  <si>
-    <t>9be58916-fddd-4b94-85c2-cefd56fd9411</t>
-  </si>
-  <si>
-    <t>bffb7e00-a286-473e-b451-a4e52f06c671</t>
-  </si>
-  <si>
-    <t>51d9e620-2450-4c2c-a4b7-941b0619b467</t>
-  </si>
-  <si>
-    <t>7752d2bc-19e3-42e7-911f-44f071e14199</t>
-  </si>
-  <si>
-    <t>4db8e52d-1585-4a6b-8c9b-96183b5fa998</t>
-  </si>
-  <si>
-    <t>86af2af4-9042-4bfe-8ea4-dfb4d5988ded</t>
-  </si>
-  <si>
-    <t>d2ace8c0-2405-4d93-bcf4-ee19570382ee</t>
-  </si>
-  <si>
-    <t>f0d76e7b-fc77-4906-8753-fd3fa6a666e3</t>
-  </si>
-  <si>
-    <t>a15857eb-4a88-44bd-9e08-54119959952f</t>
-  </si>
-  <si>
-    <t>efc9f16e-06b0-4668-b788-60dee924100d</t>
-  </si>
-  <si>
-    <t>d3867aec-e821-4802-9b40-12384ce65226</t>
-  </si>
-  <si>
-    <t>d3436082-a415-4757-899e-33df8a7a9221</t>
-  </si>
-  <si>
-    <t>1d8abebd-c688-450e-be01-5f04ec2edef6</t>
-  </si>
-  <si>
-    <t>52d14d54-47e2-4f76-bcfa-1ef5c05b9a59</t>
-  </si>
-  <si>
-    <t>ccbfcbe5-a766-4f35-86c5-3a362065e619</t>
-  </si>
-  <si>
-    <t>c14c27e2-89c6-4ede-ba3f-97e0a5c03fa2</t>
-  </si>
-  <si>
-    <t>d465f7bf-1026-4846-88b9-7a00c5902d9f</t>
-  </si>
-  <si>
-    <t>fb7ee8fa-50d0-4885-95ed-480fff56fb61</t>
-  </si>
-  <si>
-    <t>f50bb9c2-676a-4ae0-a4ed-3ba94c48685a</t>
-  </si>
-  <si>
-    <t>56805e41-bd19-4028-9017-966869ccbe7e</t>
-  </si>
-  <si>
-    <t>05958435-2f30-4105-a54a-5c7875b5c7b4</t>
-  </si>
-  <si>
-    <t>428da456-b97c-4136-9f13-ae6e417b8f32</t>
-  </si>
-  <si>
-    <t>3bba093f-ac73-4c55-b328-9d972a2ff29c</t>
-  </si>
-  <si>
-    <t>df9db64e-dbec-43ea-85e3-c67cc9cd5456</t>
-  </si>
-  <si>
-    <t>f381d183-24c9-4e5b-a14b-deaf1190cefa</t>
-  </si>
-  <si>
-    <t>2b5f6cbe-8ef5-433e-819b-b881a3d1a477</t>
-  </si>
-  <si>
-    <t>0cf6aafc-13a1-4466-a476-716a513992fa</t>
-  </si>
-  <si>
-    <t>930e9670-5bda-4c7a-a1df-1344d7054d4e</t>
-  </si>
-  <si>
-    <t>62d07709-3bb0-4344-932c-11057952b8d0</t>
-  </si>
-  <si>
-    <t>1d898eff-7f0c-47f7-a3a5-310d48b55c27</t>
-  </si>
-  <si>
-    <t>44c783be-c7b3-4286-ae97-5dafefce325a</t>
-  </si>
-  <si>
-    <t>6ed90305-618a-4e8a-b91d-52657bc0bf0d</t>
-  </si>
-  <si>
-    <t>724dc3dd-039d-4bc1-894d-abe99b501e2e</t>
-  </si>
-  <si>
-    <t>f0139a03-630a-4e52-b40a-edfdc0678514</t>
-  </si>
-  <si>
-    <t>5929cadb-e744-4f1f-9517-346acc90a25c</t>
-  </si>
-  <si>
-    <t>6bfaa687-81f4-4790-9ac4-f31d0152bce9</t>
-  </si>
-  <si>
-    <t>dd974927-5253-4d05-bb8e-71dc871edfb4</t>
-  </si>
-  <si>
-    <t>5a10a72f-9f40-4464-a93d-b372e14e8790</t>
-  </si>
-  <si>
-    <t>454f3a52-8ee4-4115-9c80-50498d937224</t>
-  </si>
-  <si>
-    <t>1dd7b6f7-851c-4846-92a2-1785c7fefc8b</t>
-  </si>
-  <si>
-    <t>36a7e41f-8818-42f3-bfa2-8899b77f5d27</t>
-  </si>
-  <si>
-    <t>63f92955-c61a-4181-a821-dbbb0a4d2f2b</t>
-  </si>
-  <si>
-    <t>00a3c67b-0bc0-4228-887a-84e0f37dc55e</t>
-  </si>
-  <si>
-    <t>dfae5edc-1d32-4467-840f-7bc215fe6ce2</t>
-  </si>
-  <si>
-    <t>acad6e70-65a7-479b-8c34-9cebf82ff68e</t>
-  </si>
-  <si>
-    <t>defbf740-6b4f-4aa3-95ea-55ac433d0540</t>
-  </si>
-  <si>
-    <t>ce5497f9-e551-4684-ad26-38e815da6338</t>
-  </si>
-  <si>
-    <t>39d42020-9ded-42d7-8573-8e8ce3362163</t>
-  </si>
-  <si>
-    <t>e5db7202-18f5-48bf-9f23-b1dfebe7d39e</t>
-  </si>
-  <si>
-    <t>994e7062-66e5-4548-886e-7bce06c8f7d4</t>
-  </si>
-  <si>
-    <t>39cbff55-7562-43a9-88f6-ff9a534faa0b</t>
+    <t>62f139c8-800e-43ba-a10d-6e0a57dfc178</t>
+  </si>
+  <si>
+    <t>63e0104d-f4c0-4db2-a0ca-4c899f2e0961</t>
+  </si>
+  <si>
+    <t>a4cb09c3-3535-45a2-9ac8-60906c825546</t>
+  </si>
+  <si>
+    <t>53902047-65d1-4cd9-8f7e-cacd2ed4b735</t>
+  </si>
+  <si>
+    <t>298942f5-f0eb-4860-93ef-a4210f4e7fd4</t>
+  </si>
+  <si>
+    <t>d636f270-1911-4ee4-b564-2eb326b3e8bb</t>
+  </si>
+  <si>
+    <t>4e4f5472-cd77-49f3-9ef4-a6531ad5b1c0</t>
+  </si>
+  <si>
+    <t>8fe2802e-93c1-4e16-85b7-550b175f9aaa</t>
+  </si>
+  <si>
+    <t>72d6a83c-5270-4933-9b18-97ecacf09673</t>
+  </si>
+  <si>
+    <t>fb14ab76-5a6b-4511-bcfc-f602895532cc</t>
+  </si>
+  <si>
+    <t>4ec2fe32-a307-4e01-8e33-87513b4eb374</t>
+  </si>
+  <si>
+    <t>39458fc0-f57b-4c3a-b1fe-12ec8a34f591</t>
+  </si>
+  <si>
+    <t>9a0669a3-c3f2-4899-8140-f7ccbb4c4ce9</t>
+  </si>
+  <si>
+    <t>01627660-acbd-4320-9957-43c294464cc5</t>
+  </si>
+  <si>
+    <t>bda3f737-8f3a-41f7-bdf1-8bc77470b4ed</t>
+  </si>
+  <si>
+    <t>90dfbc29-9466-4d00-9cb7-5cf0a5678c9c</t>
+  </si>
+  <si>
+    <t>e111159d-f42f-4722-b6ae-38284d086717</t>
+  </si>
+  <si>
+    <t>5ec177a9-ba84-49e5-82d7-0fe15747a14b</t>
+  </si>
+  <si>
+    <t>d0ef64ce-3d93-410d-9761-b395b1632545</t>
+  </si>
+  <si>
+    <t>7ce40a94-fd47-4f13-98e5-85f9bff6ee83</t>
+  </si>
+  <si>
+    <t>fc5456e8-e785-4244-99bb-fd54f95b4edc</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1049,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1390,68 +1063,66 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1500,564 +1171,340 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A135" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
